--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail9 Features.xlsx
@@ -3215,7 +3215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,29 +3226,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3269,115 +3267,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3394,72 +3382,66 @@
         <v>3.035447838554329e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4111817973059788</v>
+        <v>1.432554363746548e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.5787967564000853</v>
+        <v>2.54866814861395e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.432554363746548e-06</v>
+        <v>0.02783092870142732</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.54866814861395e-06</v>
+        <v>0.2301312744540118</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02783092870142732</v>
+        <v>0.05369506310812106</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2301312744540118</v>
+        <v>1.880191641984663</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05369506310812106</v>
+        <v>1.924977830470641</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.870726242691512</v>
+        <v>4.291845668684625</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.924977830470641</v>
+        <v>3.102975189461929e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.291845668684625</v>
+        <v>532787148.4781303</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.102975189461929e-16</v>
+        <v>2.260981238122127e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>532787148.4781303</v>
+        <v>88.08171949728981</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.260981238122127e-07</v>
+        <v>0.0001390448157878625</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>88.08171949728981</v>
+        <v>8.288156241771455</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001390448157878625</v>
+        <v>1.410768631495606</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.288156241771455</v>
+        <v>0.009551479765276351</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.410768631495606</v>
+        <v>3.116934566682066</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009551479765276351</v>
+        <v>0.9599374501289472</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.116934566682066</v>
+        <v>1.517417094450775</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9599374501289472</v>
+        <v>62</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.517417094450775</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3648852525054593</v>
       </c>
     </row>
@@ -3474,72 +3456,66 @@
         <v>2.922949243977673e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6112840117621112</v>
+        <v>1.20714847626397e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8059328650904196</v>
+        <v>2.555129599813622e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.20714847626397e-06</v>
+        <v>0.01563785341391333</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.555129599813622e-06</v>
+        <v>0.218603394626682</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01563785341391333</v>
+        <v>0.04799668601244592</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.218603394626682</v>
+        <v>1.875525306642761</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04799668601244592</v>
+        <v>1.908834992937435</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.867800327814421</v>
+        <v>4.660474189273345</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.908834992937435</v>
+        <v>2.601189175380804e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.660474189273345</v>
+        <v>640237671.8764718</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.601189175380804e-16</v>
+        <v>1.87890006129044e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>640237671.8764718</v>
+        <v>106.623856694758</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.87890006129044e-07</v>
+        <v>0.000144167402729931</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>106.623856694758</v>
+        <v>8.741670601563129</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000144167402729931</v>
+        <v>1.331770330545686</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.741670601563129</v>
+        <v>0.01101681228825147</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.331770330545686</v>
+        <v>3.074215532064282</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01101681228825147</v>
+        <v>0.9590021227169285</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.074215532064282</v>
+        <v>1.485119563013613</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9590021227169285</v>
+        <v>62</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.485119563013613</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3464952702787147</v>
       </c>
     </row>
@@ -3554,72 +3530,66 @@
         <v>2.88304842360486e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6708432092714657</v>
+        <v>9.939381356391091e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8350600861264752</v>
+        <v>2.557854723055837e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.939381356391091e-07</v>
+        <v>0.00315240157476204</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.557854723055837e-06</v>
+        <v>0.2006336918292778</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.00315240157476204</v>
+        <v>0.04022776988400447</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2006336918292778</v>
+        <v>1.886667734474127</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04022776988400447</v>
+        <v>2.274947365073623</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.890205525721704</v>
+        <v>4.684557026084795</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.274947365073623</v>
+        <v>2.406313459190375e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.684557026084795</v>
+        <v>684699189.1874074</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.406313459190375e-16</v>
+        <v>1.756827517023359e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>684699189.1874074</v>
+        <v>112.8110982832433</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.756827517023359e-07</v>
+        <v>0.0001335654139072486</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>112.8110982832433</v>
+        <v>9.179224251627959</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001335654139072486</v>
+        <v>1.215563481934994</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.179224251627959</v>
+        <v>0.0112539757298569</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.215563481934994</v>
+        <v>3.020756870473127</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0112539757298569</v>
+        <v>0.9581977423711561</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.020756870473127</v>
+        <v>1.408353925941165</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9581977423711561</v>
+        <v>57</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.408353925941165</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3340931069802818</v>
       </c>
     </row>
@@ -3634,72 +3604,66 @@
         <v>2.891965440295782e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6655418787922062</v>
+        <v>9.458981879508495e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8415441752377402</v>
+        <v>2.556899290983198e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.458981879508495e-07</v>
+        <v>-0.009670964054826186</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.556899290983198e-06</v>
+        <v>0.1748476608313869</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.009670964054826186</v>
+        <v>0.03062877048780855</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1748476608313869</v>
+        <v>1.894963354626015</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03062877048780855</v>
+        <v>2.209301137541043</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.894935525659099</v>
+        <v>4.685006289335708</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.209301137541043</v>
+        <v>2.405851980034644e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.685006289335708</v>
+        <v>678400244.5212455</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.405851980034644e-16</v>
+        <v>1.777270500673175e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>678400244.5212455</v>
+        <v>110.7237778821589</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.777270500673175e-07</v>
+        <v>0.0001259583224898908</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>110.7237778821589</v>
+        <v>8.786527554931654</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001259583224898908</v>
+        <v>1.221195621059688</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.786527554931654</v>
+        <v>0.009724368744086815</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.221195621059688</v>
+        <v>3.025959698535443</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009724368744086815</v>
+        <v>0.9583043673796294</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.025959698535443</v>
+        <v>1.445629866062718</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9583043673796294</v>
+        <v>57</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.445629866062718</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3456061108220702</v>
       </c>
     </row>
@@ -3714,72 +3678,66 @@
         <v>2.922681476229035e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6663234554873101</v>
+        <v>9.503648413902366e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8597183488236735</v>
+        <v>2.552272471386031e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.503648413902366e-07</v>
+        <v>-0.02185161927498868</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.552272471386031e-06</v>
+        <v>0.1444463131412577</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02185161927498868</v>
+        <v>0.02131105850568884</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1444463131412577</v>
+        <v>1.897210817909744</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02131105850568884</v>
+        <v>2.285288000499713</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.896579469361517</v>
+        <v>4.621777718865991</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.285288000499713</v>
+        <v>2.472129125109196e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.621777718865991</v>
+        <v>636457434.1471546</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.472129125109196e-16</v>
+        <v>1.877116865025177e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>636457434.1471546</v>
+        <v>100.1405283618914</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.877116865025177e-07</v>
+        <v>0.0001229309340622616</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>100.1405283618914</v>
+        <v>8.039846004240662</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001229309340622616</v>
+        <v>1.260853897490034</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.039846004240662</v>
+        <v>0.007946147862246362</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.260853897490034</v>
+        <v>3.165496864133694</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007946147862246362</v>
+        <v>0.9567821913492366</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.165496864133694</v>
+        <v>1.468085143225337</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9567821913492366</v>
+        <v>57</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.468085143225337</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3698845364483992</v>
       </c>
     </row>
@@ -3794,72 +3752,66 @@
         <v>2.94790078881164e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7028226195073499</v>
+        <v>9.532408695437951e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8320959259947962</v>
+        <v>2.544235141718516e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.532408695437951e-07</v>
+        <v>-0.03246488527093864</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.544235141718516e-06</v>
+        <v>0.1145375050707095</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03246488527093864</v>
+        <v>0.01415054299037192</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1145375050707095</v>
+        <v>1.893049950610726</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01415054299037192</v>
+        <v>2.05891787477859</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.895556138778874</v>
+        <v>4.451116150964356</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.05891787477859</v>
+        <v>2.66533256686183e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.451116150964356</v>
+        <v>582859774.2640915</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.66533256686183e-16</v>
+        <v>2.05756267553116e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>582859774.2640915</v>
+        <v>90.5481482801966</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.05756267553116e-07</v>
+        <v>0.0001338415430533204</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>90.5481482801966</v>
+        <v>7.905832735735811</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001338415430533204</v>
+        <v>1.44110976258194</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.905832735735811</v>
+        <v>0.008365389720502348</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.44110976258194</v>
+        <v>3.231372464926425</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008365389720502348</v>
+        <v>0.9578279576620872</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.231372464926425</v>
+        <v>1.433259657175425</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9578279576620872</v>
+        <v>42</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.433259657175425</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4281673662105114</v>
       </c>
     </row>
@@ -4236,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.251311936010945</v>
+        <v>1.280112398276363</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.845749310013506</v>
@@ -4325,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.26051304430853</v>
+        <v>1.289196762866122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.761645153955459</v>
@@ -4414,7 +4366,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.269213927708704</v>
+        <v>1.295515501238705</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.786478575161105</v>
@@ -4503,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.299230187054383</v>
+        <v>1.325354754711602</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.611443986028868</v>
@@ -4592,7 +4544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.286198083012095</v>
+        <v>1.306607462611644</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.649731728571211</v>
@@ -4681,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.263733683915755</v>
+        <v>1.27365228845401</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.597396169626845</v>
@@ -4770,7 +4722,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.40618642515033</v>
+        <v>1.402557490948183</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.700464840817205</v>
@@ -4859,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543391215661373</v>
+        <v>1.517313827151209</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.860688281361943</v>
@@ -4948,7 +4900,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649254257460764</v>
+        <v>1.602730587529263</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.128658245133752</v>
@@ -5037,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660906651556131</v>
+        <v>1.614629614190773</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.491783097534837</v>
@@ -5126,7 +5078,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.671309487603516</v>
+        <v>1.618769686031787</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.152431234767123</v>
@@ -5215,7 +5167,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.665979591609468</v>
+        <v>1.617731009682206</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.124127712775905</v>
@@ -5304,7 +5256,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670734320614947</v>
+        <v>1.620464880339844</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.054094617945654</v>
@@ -5393,7 +5345,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.669092512968607</v>
+        <v>1.620652736325697</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.34292068539342</v>
@@ -5482,7 +5434,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66541112119224</v>
+        <v>1.618161788126026</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.469267648606788</v>
@@ -5571,7 +5523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.635791611960498</v>
+        <v>1.59533125268405</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.09731361222277</v>
@@ -5660,7 +5612,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.622306325366428</v>
+        <v>1.584833264786942</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.16869284056113</v>
@@ -5749,7 +5701,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.620105338447328</v>
+        <v>1.584716152970051</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.131434297651212</v>
@@ -5838,7 +5790,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.623357632237198</v>
+        <v>1.585587381973724</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.008268294874374</v>
@@ -5927,7 +5879,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637333649168365</v>
+        <v>1.599157453332047</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.100610718105854</v>
@@ -6016,7 +5968,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638393052219062</v>
+        <v>1.594553326972219</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.075240512247565</v>
@@ -6105,7 +6057,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646617984078536</v>
+        <v>1.607248059294468</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.946714671247794</v>
@@ -6194,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653378751891448</v>
+        <v>1.607699757104252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.107564354005092</v>
@@ -6283,7 +6235,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.657081282711607</v>
+        <v>1.599189370262026</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.107667945894954</v>
@@ -6372,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.648570871425852</v>
+        <v>1.582876642725374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.010625578545617</v>
@@ -6461,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631381917453624</v>
+        <v>1.57407589746758</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.077837680378535</v>
@@ -6550,7 +6502,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.630287877954086</v>
+        <v>1.575103006552393</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.035240267387107</v>
@@ -6639,7 +6591,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621955212803278</v>
+        <v>1.565843583149881</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.003660353030478</v>
@@ -6728,7 +6680,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618016698196089</v>
+        <v>1.558172426700052</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.150462408363218</v>
@@ -6817,7 +6769,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614270182185883</v>
+        <v>1.555040874295711</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.998875461608242</v>
@@ -6906,7 +6858,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63785109580906</v>
+        <v>1.575075081445782</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.827136521169126</v>
@@ -6995,7 +6947,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638542580539179</v>
+        <v>1.576247106228677</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.173748976032836</v>
@@ -7084,7 +7036,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.64384912281353</v>
+        <v>1.583491304244782</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.338444703074153</v>
@@ -7173,7 +7125,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644505334510757</v>
+        <v>1.587886812301099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.352008185753687</v>
@@ -7262,7 +7214,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616683947353956</v>
+        <v>1.570096410900329</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.650000105582012</v>
@@ -7351,7 +7303,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.40973231110879</v>
+        <v>1.364779098844415</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.448893914468046</v>
@@ -7440,7 +7392,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.292317504922032</v>
+        <v>1.272772160798453</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.47327760069724</v>
@@ -7529,7 +7481,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.28484573299592</v>
+        <v>1.269631942915425</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.478134677208497</v>
@@ -7618,7 +7570,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282430837237716</v>
+        <v>1.271994726226434</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.480794184236825</v>
@@ -7707,7 +7659,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.27601737274581</v>
+        <v>1.270418287477409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.483794553759753</v>
@@ -7796,7 +7748,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.274601366230354</v>
+        <v>1.269360570161758</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.486646101905042</v>
@@ -7885,7 +7837,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.273093702070118</v>
+        <v>1.266356820984024</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.48509449956904</v>
@@ -7974,7 +7926,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.27502006344276</v>
+        <v>1.268424273976257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.485996580850823</v>
@@ -8063,7 +8015,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.274212936758104</v>
+        <v>1.267418062208553</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.482888444095685</v>
@@ -8152,7 +8104,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.274025265048339</v>
+        <v>1.267127197037976</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.484834688079952</v>
@@ -8241,7 +8193,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.274491240803713</v>
+        <v>1.2685384992105</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.484222261912542</v>
@@ -8330,7 +8282,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.275907272701778</v>
+        <v>1.269566414691592</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.478991777174003</v>
@@ -8419,7 +8371,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.274867498506083</v>
+        <v>1.266029926940532</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.480163101991126</v>
@@ -8508,7 +8460,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.272499663039414</v>
+        <v>1.263015861220158</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.475664126488015</v>
@@ -8597,7 +8549,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.277637695096428</v>
+        <v>1.266087387669002</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.481395922197707</v>
@@ -8686,7 +8638,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.452948578918697</v>
+        <v>1.441453722706716</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.526081013270213</v>
@@ -8972,7 +8924,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.267150143705666</v>
+        <v>1.277376073598689</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.585289122589689</v>
@@ -9061,7 +9013,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.279415585649751</v>
+        <v>1.291801228147623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.576102026246813</v>
@@ -9150,7 +9102,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.291961441490569</v>
+        <v>1.307753516377763</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.518070203373616</v>
@@ -9239,7 +9191,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.450947784660131</v>
+        <v>1.477077620381796</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.867627739771351</v>
@@ -9328,7 +9280,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484412193820592</v>
+        <v>1.511393541586084</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.295488966323108</v>
@@ -9417,7 +9369,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.488201193808549</v>
+        <v>1.511589418499307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.111684014062591</v>
@@ -9506,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526572258520173</v>
+        <v>1.542855358035922</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.410845150563708</v>
@@ -9595,7 +9547,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.551368345554908</v>
+        <v>1.561931744793691</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.353703946940746</v>
@@ -9684,7 +9636,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.553832670849353</v>
+        <v>1.563625659560277</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.691757958179566</v>
@@ -9773,7 +9725,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.571737456860739</v>
+        <v>1.573779884117283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.353888854250406</v>
@@ -9862,7 +9814,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551475335419599</v>
+        <v>1.55811272523065</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.607559986582509</v>
@@ -9951,7 +9903,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549906641122291</v>
+        <v>1.551696360339865</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.515274032143044</v>
@@ -10040,7 +9992,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55597300183068</v>
+        <v>1.554930479708752</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.235952848100375</v>
@@ -10129,7 +10081,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.576749363555821</v>
+        <v>1.562746758126681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.512780710296338</v>
@@ -10218,7 +10170,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575231514992774</v>
+        <v>1.560544887102072</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.421995264144854</v>
@@ -10307,7 +10259,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554151130542849</v>
+        <v>1.536387124311901</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.495557982887559</v>
@@ -10396,7 +10348,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.539528672775452</v>
+        <v>1.521327427128535</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.486754001782889</v>
@@ -10485,7 +10437,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.531091926583368</v>
+        <v>1.510899479811141</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.218413997040226</v>
@@ -10574,7 +10526,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.514048107890408</v>
+        <v>1.494209304427609</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.441902461692948</v>
@@ -10663,7 +10615,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50357879079749</v>
+        <v>1.47911864203226</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.392881200500471</v>
@@ -10752,7 +10704,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.504553134698233</v>
+        <v>1.476773708136158</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.393666577400345</v>
@@ -10841,7 +10793,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514302257145999</v>
+        <v>1.483344361989354</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.155491614636187</v>
@@ -10930,7 +10882,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.565802392871547</v>
+        <v>1.521289238269037</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.598120267983309</v>
@@ -11019,7 +10971,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.571941526940981</v>
+        <v>1.525127606660756</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.373122307786946</v>
@@ -11108,7 +11060,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.569528317827293</v>
+        <v>1.528580003087336</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.215589879138715</v>
@@ -11197,7 +11149,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.587104880435057</v>
+        <v>1.541711750726027</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.945150269564696</v>
@@ -11286,7 +11238,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584488555448053</v>
+        <v>1.542721859955273</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.851764563131177</v>
@@ -11375,7 +11327,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.586855459033627</v>
+        <v>1.539803257145015</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.896906637092143</v>
@@ -11464,7 +11416,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592529894356312</v>
+        <v>1.548833106271021</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.887558679654795</v>
@@ -11553,7 +11505,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.597267011469969</v>
+        <v>1.54961217073842</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.863608681197921</v>
@@ -11642,7 +11594,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604155470720065</v>
+        <v>1.555721280093606</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.926086589807218</v>
@@ -11731,7 +11683,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603724897604522</v>
+        <v>1.549485657834921</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.870159409948155</v>
@@ -11820,7 +11772,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616119953671912</v>
+        <v>1.558345050682067</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.87576810939961</v>
@@ -11909,7 +11861,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.646658995954947</v>
+        <v>1.583362663651407</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.026493411087817</v>
@@ -11998,7 +11950,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607828170676361</v>
+        <v>1.557959071480156</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.555117035556818</v>
@@ -12087,7 +12039,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.347568288467012</v>
+        <v>1.279260762499726</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.394002377329078</v>
@@ -12176,7 +12128,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.279820028740753</v>
+        <v>1.237837022844045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.410132105152278</v>
@@ -12265,7 +12217,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.271188793941841</v>
+        <v>1.230866859187341</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.415879850266988</v>
@@ -12354,7 +12306,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.272072098216356</v>
+        <v>1.231665977210193</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.41771245028354</v>
@@ -12443,7 +12395,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.268430360860661</v>
+        <v>1.229480403925604</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.421724215875071</v>
@@ -12532,7 +12484,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.269218484535221</v>
+        <v>1.229856443999722</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.42010237307501</v>
@@ -12621,7 +12573,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.266597760460854</v>
+        <v>1.228241266093644</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.421437863177941</v>
@@ -12710,7 +12662,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.264592331740492</v>
+        <v>1.226843264149379</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.4239504488773</v>
@@ -12799,7 +12751,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.262068417762145</v>
+        <v>1.22269842071844</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.422631564155721</v>
@@ -12888,7 +12840,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.261024079597783</v>
+        <v>1.222542410074958</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.421814683833855</v>
@@ -12977,7 +12929,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.260510492954201</v>
+        <v>1.221315204329779</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.418599672362524</v>
@@ -13066,7 +13018,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.267058591770721</v>
+        <v>1.228447445164927</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.421584558955232</v>
@@ -13155,7 +13107,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.269874136283471</v>
+        <v>1.23127681804535</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.424981578495337</v>
@@ -13244,7 +13196,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.266593874209174</v>
+        <v>1.226931078481945</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.417583969055643</v>
@@ -13333,7 +13285,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.278589793509382</v>
+        <v>1.236984378555763</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.420987812792516</v>
@@ -13422,7 +13374,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.457833860320369</v>
+        <v>1.439451281105323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.691959248168587</v>
@@ -13708,7 +13660,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.600692973836384</v>
+        <v>1.63984396007095</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.437974845164047</v>
@@ -13797,7 +13749,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.618575369490284</v>
+        <v>1.660256998609277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.388458381531975</v>
@@ -13886,7 +13838,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60694719827904</v>
+        <v>1.651359970140549</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.349923673568592</v>
@@ -13975,7 +13927,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.613551404976442</v>
+        <v>1.646913116719121</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.274203830116345</v>
@@ -14064,7 +14016,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544074351001041</v>
+        <v>1.566813248104133</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.093127280074895</v>
@@ -14153,7 +14105,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536457515591987</v>
+        <v>1.54115392532226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.013405006663421</v>
@@ -14242,7 +14194,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.567637807762789</v>
+        <v>1.564556145709423</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.988107500262914</v>
@@ -14331,7 +14283,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617404018023496</v>
+        <v>1.608656418267173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.101838619143095</v>
@@ -14420,7 +14372,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.605969108320731</v>
+        <v>1.597021135746501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.043383204170997</v>
@@ -14509,7 +14461,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599579019450278</v>
+        <v>1.592146788377741</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.913501194711503</v>
@@ -14598,7 +14550,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600461313585565</v>
+        <v>1.586834959204076</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.954344933241462</v>
@@ -14687,7 +14639,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.603368042035419</v>
+        <v>1.579999154412062</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.870421348930297</v>
@@ -14776,7 +14728,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579219518254772</v>
+        <v>1.562638821993555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.964931916052615</v>
@@ -14865,7 +14817,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.57653492974372</v>
+        <v>1.560795945595026</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.971108329249328</v>
@@ -14954,7 +14906,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580059784148197</v>
+        <v>1.562528797495739</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.12182514121287</v>
@@ -15043,7 +14995,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.568280787323998</v>
+        <v>1.551691196498801</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.037931113646076</v>
@@ -15132,7 +15084,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574714341243593</v>
+        <v>1.556113338308</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.821901168112558</v>
@@ -15221,7 +15173,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.561957732562555</v>
+        <v>1.545094368052818</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.829510530311579</v>
@@ -15310,7 +15262,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.551392268110779</v>
+        <v>1.537943211972821</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.874543567512815</v>
@@ -15399,7 +15351,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548430602660824</v>
+        <v>1.533155405139216</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.797521649624865</v>
@@ -15488,7 +15440,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.550385865580925</v>
+        <v>1.535382357114661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.761300546351602</v>
@@ -15577,7 +15529,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.551499951322124</v>
+        <v>1.539631500173928</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.562691561850847</v>
@@ -15666,7 +15618,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.557295784584924</v>
+        <v>1.541914033812201</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.617575170614795</v>
@@ -15755,7 +15707,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.572824900268723</v>
+        <v>1.549667107327385</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.694399273266813</v>
@@ -15844,7 +15796,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574308097639336</v>
+        <v>1.548411431178342</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.741826268467029</v>
@@ -15933,7 +15885,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580527225276243</v>
+        <v>1.554983223754218</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.836031818582661</v>
@@ -16022,7 +15974,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577903267326173</v>
+        <v>1.554019381235835</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.885475381282662</v>
@@ -16111,7 +16063,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578053708319668</v>
+        <v>1.550458452285332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.75167562811866</v>
@@ -16200,7 +16152,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.569325982303321</v>
+        <v>1.542552746082719</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.765136731240221</v>
@@ -16289,7 +16241,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559026880343499</v>
+        <v>1.533579913881624</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.661213499887817</v>
@@ -16378,7 +16330,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.552170256016782</v>
+        <v>1.521037710659741</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.509684188014212</v>
@@ -16467,7 +16419,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.523048997002123</v>
+        <v>1.502361575892608</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.55778438307865</v>
@@ -16556,7 +16508,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534432620996894</v>
+        <v>1.511843347669125</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.326187038718072</v>
@@ -16645,7 +16597,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541185919220182</v>
+        <v>1.515857545600888</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.504143302178996</v>
@@ -16734,7 +16686,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538980173906293</v>
+        <v>1.513748795815097</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.456062185627418</v>
@@ -16823,7 +16775,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.454701536694076</v>
+        <v>1.434184021879942</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.823155201180654</v>
@@ -16912,7 +16864,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.402958187086194</v>
+        <v>1.389857681049364</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.817194666264109</v>
@@ -17001,7 +16953,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.393344165422135</v>
+        <v>1.380439868452388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.828528806868244</v>
@@ -17090,7 +17042,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.390735784210671</v>
+        <v>1.379549154174966</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.82819750637028</v>
@@ -17179,7 +17131,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.392333603152206</v>
+        <v>1.38399746451433</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.819251314023631</v>
@@ -17268,7 +17220,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.390668202128353</v>
+        <v>1.384269844574922</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.826548503713777</v>
@@ -17357,7 +17309,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.389275366062025</v>
+        <v>1.383960926633522</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.832864063808373</v>
@@ -17446,7 +17398,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.395781713522203</v>
+        <v>1.388852821330491</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.826718075727392</v>
@@ -17535,7 +17487,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.395021117016479</v>
+        <v>1.388059374773304</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.81961273428091</v>
@@ -17624,7 +17576,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.393688375641882</v>
+        <v>1.387322229960181</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.826537529345899</v>
@@ -17713,7 +17665,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.398744957119534</v>
+        <v>1.393278170210681</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.841303460449891</v>
@@ -17802,7 +17754,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.421432818695574</v>
+        <v>1.417215983434069</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.810799124156197</v>
@@ -17891,7 +17843,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.419686295245657</v>
+        <v>1.415393608075839</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.811842875679107</v>
@@ -17980,7 +17932,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.424764446174634</v>
+        <v>1.420877534335457</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.828278586021888</v>
@@ -18069,7 +18021,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.424947966239683</v>
+        <v>1.421362681241684</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.826037140200914</v>
@@ -18158,7 +18110,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.541315887633843</v>
+        <v>1.536839615600369</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.432021109203264</v>
@@ -18444,7 +18396,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539409820765449</v>
+        <v>1.560056737295452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.440148113832281</v>
@@ -18533,7 +18485,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.557557173233701</v>
+        <v>1.586121761559569</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.331919076087909</v>
@@ -18622,7 +18574,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.579142846030172</v>
+        <v>1.604275724527115</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.297509312513315</v>
@@ -18711,7 +18663,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58580759832072</v>
+        <v>1.603740672432725</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.215024039902347</v>
@@ -18800,7 +18752,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.530445147553087</v>
+        <v>1.535530469464567</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.418359201795583</v>
@@ -18889,7 +18841,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.529855651841013</v>
+        <v>1.526492584924942</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.324341506517337</v>
@@ -18978,7 +18930,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547794476476703</v>
+        <v>1.537100990479059</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.085272008338315</v>
@@ -19067,7 +19019,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622427607047362</v>
+        <v>1.605192413779434</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.225704867567891</v>
@@ -19156,7 +19108,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.654346911494818</v>
+        <v>1.634049721840072</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.945760637145841</v>
@@ -19245,7 +19197,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653149912517031</v>
+        <v>1.634306098388214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.242084556102772</v>
@@ -19334,7 +19286,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.647238531035949</v>
+        <v>1.631332107991535</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.165076230686405</v>
@@ -19423,7 +19375,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648965194557985</v>
+        <v>1.630419148109779</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.057427318306796</v>
@@ -19512,7 +19464,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.650234680617974</v>
+        <v>1.631026106034478</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.353144577272355</v>
@@ -19601,7 +19553,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653595194835894</v>
+        <v>1.628492467833391</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.200801672903384</v>
@@ -19690,7 +19642,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653294204844294</v>
+        <v>1.631007830878658</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.052615339454935</v>
@@ -19779,7 +19731,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.647731906225206</v>
+        <v>1.616381331294271</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.342497165694468</v>
@@ -19868,7 +19820,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.647397884389887</v>
+        <v>1.610029028274747</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.450340791269811</v>
@@ -19957,7 +19909,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.643775748153029</v>
+        <v>1.60699888311598</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.358633323779394</v>
@@ -20046,7 +19998,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.635355026425455</v>
+        <v>1.602181666201498</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.324877870925423</v>
@@ -20135,7 +20087,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.654806170879874</v>
+        <v>1.612556278051805</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.878768619995207</v>
@@ -20224,7 +20176,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.662749148800089</v>
+        <v>1.62465767706317</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.992934321414688</v>
@@ -20313,7 +20265,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.664484609793658</v>
+        <v>1.633735703420738</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.734495289768564</v>
@@ -20402,7 +20354,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.668486067672558</v>
+        <v>1.635546582160487</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.167841463280211</v>
@@ -20491,7 +20443,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.671586193743819</v>
+        <v>1.634870453809961</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.664871798120286</v>
@@ -20580,7 +20532,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677273768818738</v>
+        <v>1.637700467029604</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.932242721560545</v>
@@ -20669,7 +20621,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.688887761786505</v>
+        <v>1.640791964067314</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.575395626296762</v>
@@ -20758,7 +20710,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.688641556444339</v>
+        <v>1.637744658599579</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.639069698714605</v>
@@ -20847,7 +20799,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.688355874579358</v>
+        <v>1.639354932769593</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.904533451497717</v>
@@ -20936,7 +20888,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688082118474519</v>
+        <v>1.642292015959498</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.764389838503587</v>
@@ -21025,7 +20977,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.685600143271915</v>
+        <v>1.636079315746663</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.921343913020082</v>
@@ -21114,7 +21066,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.686118024768533</v>
+        <v>1.642376927084233</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.11172612515395</v>
@@ -21203,7 +21155,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683775256528858</v>
+        <v>1.642581933956482</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.085399288288514</v>
@@ -21292,7 +21244,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.695505632378689</v>
+        <v>1.651558512228735</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.603320573651653</v>
@@ -21381,7 +21333,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.70288882456218</v>
+        <v>1.658007007665757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.259965243533</v>
@@ -21470,7 +21422,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.704319653694424</v>
+        <v>1.663657587259465</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.967233986665268</v>
@@ -21559,7 +21511,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587416448908829</v>
+        <v>1.554812958023744</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.820899877301785</v>
@@ -21648,7 +21600,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517125698731199</v>
+        <v>1.501353679365608</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.832770558677569</v>
@@ -21737,7 +21689,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513499779039517</v>
+        <v>1.500809787025017</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.823783480064498</v>
@@ -21826,7 +21778,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51335124250323</v>
+        <v>1.498655738772347</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.804700788068069</v>
@@ -21915,7 +21867,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.510184297559865</v>
+        <v>1.499069079116525</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.820172631090521</v>
@@ -22004,7 +21956,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505581409784193</v>
+        <v>1.497017498939861</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.836531868040923</v>
@@ -22093,7 +22045,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.502071273574535</v>
+        <v>1.495528546973478</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.825170226229461</v>
@@ -22182,7 +22134,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.503370123414834</v>
+        <v>1.49574920969639</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.826921805321345</v>
@@ -22271,7 +22223,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503198283696305</v>
+        <v>1.494905411416087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.823676868990548</v>
@@ -22360,7 +22312,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.494723710017198</v>
+        <v>1.49081321268635</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.828603759030087</v>
@@ -22449,7 +22401,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.499751813648298</v>
+        <v>1.498142200191408</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.830013604857267</v>
@@ -22538,7 +22490,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499591630433188</v>
+        <v>1.500284866355367</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.833037164325259</v>
@@ -22627,7 +22579,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.500604885849543</v>
+        <v>1.502949608188908</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.81772429143225</v>
@@ -22716,7 +22668,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.504394091559295</v>
+        <v>1.507961329316677</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.82957360185249</v>
@@ -22805,7 +22757,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.513108483170532</v>
+        <v>1.51332982306157</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.858650367665127</v>
@@ -22894,7 +22846,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.647391880071503</v>
+        <v>1.638867412463509</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.411036205274109</v>
@@ -23180,7 +23132,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.399921346989297</v>
+        <v>1.41938465169297</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.3037222940809</v>
@@ -23269,7 +23221,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.400092956692045</v>
+        <v>1.417805842776648</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.212139694723457</v>
@@ -23358,7 +23310,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.402319383198158</v>
+        <v>1.415853880226988</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.158113938746836</v>
@@ -23447,7 +23399,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.393905699766244</v>
+        <v>1.402306217278953</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.161925604660711</v>
@@ -23536,7 +23488,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.361234622841797</v>
+        <v>1.37078094135512</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.090720504380557</v>
@@ -23625,7 +23577,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373808007040455</v>
+        <v>1.382572072662087</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.036270484981337</v>
@@ -23714,7 +23666,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.417138874464498</v>
+        <v>1.414880424346821</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.195080952971106</v>
@@ -23803,7 +23755,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411853414633017</v>
+        <v>1.410409952317565</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.316086601033653</v>
@@ -23892,7 +23844,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.421856668473328</v>
+        <v>1.409069365031771</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.293355771062833</v>
@@ -23981,7 +23933,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.427903861413082</v>
+        <v>1.419751245401259</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.33679953967581</v>
@@ -24070,7 +24022,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.464471394509197</v>
+        <v>1.455806808102697</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.373373117950083</v>
@@ -24159,7 +24111,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.432841982795301</v>
+        <v>1.427129495775409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.330351005958069</v>
@@ -24248,7 +24200,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.429650291187922</v>
+        <v>1.42314014948239</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.330837607716716</v>
@@ -24337,7 +24289,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.430098834823145</v>
+        <v>1.42372898619944</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.157501478672594</v>
@@ -24426,7 +24378,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431316152469462</v>
+        <v>1.426847945888968</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.218329222250471</v>
@@ -24515,7 +24467,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.399504123855422</v>
+        <v>1.397842492015904</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.188438277502106</v>
@@ -24604,7 +24556,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.384356312523992</v>
+        <v>1.384903558967059</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.243957787391397</v>
@@ -24693,7 +24645,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.398105754845017</v>
+        <v>1.40078528420899</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.251938797098098</v>
@@ -24782,7 +24734,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.393954984002192</v>
+        <v>1.399292081225282</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.17349531301713</v>
@@ -24871,7 +24823,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.380621931882603</v>
+        <v>1.37503847404318</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.260866147922142</v>
@@ -24960,7 +24912,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.363054841076407</v>
+        <v>1.366628610390157</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.215444260211719</v>
@@ -25049,7 +25001,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.365735694033184</v>
+        <v>1.36963643664697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.192941860390647</v>
@@ -25138,7 +25090,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388307893074597</v>
+        <v>1.391956976082677</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.182000309853874</v>
@@ -25227,7 +25179,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.383278578152673</v>
+        <v>1.394566352028966</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.203915416534256</v>
@@ -25316,7 +25268,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.386545692669124</v>
+        <v>1.395130286875115</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.174975960901285</v>
@@ -25405,7 +25357,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.384153378256584</v>
+        <v>1.391845351333072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.254842235452112</v>
@@ -25494,7 +25446,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.407562855618933</v>
+        <v>1.414647515455684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.204726174606745</v>
@@ -25583,7 +25535,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.420689410391241</v>
+        <v>1.426119780372818</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.148119085189884</v>
@@ -25672,7 +25624,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.423162025091509</v>
+        <v>1.430333150964102</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.08602906586592</v>
@@ -25761,7 +25713,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440720141625205</v>
+        <v>1.435485572947368</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.167142782446997</v>
@@ -25850,7 +25802,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.451547885637104</v>
+        <v>1.452458747312021</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.104095429334821</v>
@@ -25939,7 +25891,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.463627129630475</v>
+        <v>1.464766657507405</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.198037058571589</v>
@@ -26028,7 +25980,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.466210140178194</v>
+        <v>1.467742970017732</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.187994799620369</v>
@@ -26117,7 +26069,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.449821818995116</v>
+        <v>1.452718820294348</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.13540171399324</v>
@@ -26206,7 +26158,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.491049185421019</v>
+        <v>1.494191466283269</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.915668137077278</v>
@@ -26295,7 +26247,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.441834146385753</v>
+        <v>1.437368790024043</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.903205466798676</v>
@@ -26384,7 +26336,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.401843937241597</v>
+        <v>1.404107186456197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.93095284909809</v>
@@ -26473,7 +26425,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.364887085815816</v>
+        <v>1.36439112749194</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.942234173019281</v>
@@ -26562,7 +26514,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.347689289539971</v>
+        <v>1.350076162616418</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.983615304963233</v>
@@ -26651,7 +26603,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.336867490106406</v>
+        <v>1.338482979811357</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.967637555843856</v>
@@ -26740,7 +26692,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.335112545304116</v>
+        <v>1.337232130655355</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.946913133724985</v>
@@ -26829,7 +26781,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.330794508428254</v>
+        <v>1.325784359812803</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.994286929504792</v>
@@ -26918,7 +26870,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.319341231445768</v>
+        <v>1.320258485876782</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.972573580103897</v>
@@ -27007,7 +26959,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.320444938773485</v>
+        <v>1.320527980991308</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.039133953366944</v>
@@ -27096,7 +27048,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.321529946827633</v>
+        <v>1.32278349814872</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.946859244170483</v>
@@ -27185,7 +27137,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.320116295689194</v>
+        <v>1.323076017599949</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.960132443552588</v>
@@ -27274,7 +27226,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.324196166092465</v>
+        <v>1.327237602068862</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.919404062663494</v>
@@ -27363,7 +27315,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.330264878944517</v>
+        <v>1.334937686248062</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.016788824231118</v>
@@ -27452,7 +27404,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.342168537322968</v>
+        <v>1.350756130696313</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.05284259684669</v>
@@ -27541,7 +27493,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.351811628133856</v>
+        <v>1.360832615131671</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.029388971258865</v>
@@ -27630,7 +27582,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.393845070392263</v>
+        <v>1.411689752330779</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.111929575831603</v>
@@ -27916,7 +27868,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.397218546375136</v>
+        <v>1.424633848360251</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.137925623440844</v>
@@ -28005,7 +27957,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.39362377422101</v>
+        <v>1.421952783498338</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.149867754792965</v>
@@ -28094,7 +28046,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380925455403575</v>
+        <v>1.408046384342066</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.062582308475327</v>
@@ -28183,7 +28135,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.357055692138524</v>
+        <v>1.374361464572961</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.969651810239513</v>
@@ -28272,7 +28224,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.259749703383759</v>
+        <v>1.255471373143237</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.918064946685384</v>
@@ -28361,7 +28313,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.271006425362276</v>
+        <v>1.258980408240308</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.849008656550637</v>
@@ -28450,7 +28402,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.273844862393615</v>
+        <v>1.257440682086897</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.822582159803228</v>
@@ -28539,7 +28491,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.317162331241445</v>
+        <v>1.302876520135861</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.004063963014742</v>
@@ -28628,7 +28580,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.313305187977792</v>
+        <v>1.299827263765416</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.117734747661101</v>
@@ -28717,7 +28669,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.335150848911763</v>
+        <v>1.324471688574357</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.704197296989987</v>
@@ -28806,7 +28758,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.338477333978203</v>
+        <v>1.327559683702186</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.424780269765828</v>
@@ -28895,7 +28847,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.339162646677126</v>
+        <v>1.331844425739442</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.617033785185823</v>
@@ -28984,7 +28936,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.331116472571477</v>
+        <v>1.324570316873697</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.506832366273552</v>
@@ -29073,7 +29025,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.33570997552266</v>
+        <v>1.328193327335885</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.666588252236346</v>
@@ -29162,7 +29114,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.332416458385213</v>
+        <v>1.32241396957117</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.440762656831561</v>
@@ -29251,7 +29203,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33492459448879</v>
+        <v>1.323162927545648</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.37263750893283</v>
@@ -29340,7 +29292,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.323208815210352</v>
+        <v>1.308689933288318</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.172684655296574</v>
@@ -29429,7 +29381,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.318840390148023</v>
+        <v>1.305283575937527</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.156768045096508</v>
@@ -29518,7 +29470,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.301965728898105</v>
+        <v>1.29005459588992</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.209612087368638</v>
@@ -29607,7 +29559,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.295498456626048</v>
+        <v>1.288579144162363</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.157554121347441</v>
@@ -29696,7 +29648,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.295935855854043</v>
+        <v>1.289519240064165</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.025332962615194</v>
@@ -29785,7 +29737,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.297381999770674</v>
+        <v>1.292579538621694</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.138766770716458</v>
@@ -29874,7 +29826,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.293835350372941</v>
+        <v>1.291453090675703</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.152735220713393</v>
@@ -29963,7 +29915,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.29417111805539</v>
+        <v>1.290813593109274</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.163544412334027</v>
@@ -30052,7 +30004,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.297852754647935</v>
+        <v>1.28921788783894</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.238939124076235</v>
@@ -30141,7 +30093,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.301116527302452</v>
+        <v>1.294069875279795</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.17335178119102</v>
@@ -30230,7 +30182,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.303517590097975</v>
+        <v>1.294849063134235</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.13588647960842</v>
@@ -30319,7 +30271,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.301506285828321</v>
+        <v>1.294963931582001</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.121296565890241</v>
@@ -30408,7 +30360,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.29970978871252</v>
+        <v>1.294052065267223</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.141641506923743</v>
@@ -30497,7 +30449,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.302805114163437</v>
+        <v>1.298212818954139</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.229773593394648</v>
@@ -30586,7 +30538,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.308261658629524</v>
+        <v>1.299712374051746</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.271173119688529</v>
@@ -30675,7 +30627,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.314193696743303</v>
+        <v>1.306488434443148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.269214529662884</v>
@@ -30764,7 +30716,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.317582294493847</v>
+        <v>1.313145018292263</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.173486816159052</v>
@@ -30853,7 +30805,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.318241969966349</v>
+        <v>1.314503737320458</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.377130571183714</v>
@@ -30942,7 +30894,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.312741705096589</v>
+        <v>1.305422588474652</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.589762918315938</v>
@@ -31031,7 +30983,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.275123719044275</v>
+        <v>1.240193933233535</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.486700963688734</v>
@@ -31120,7 +31072,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.201279788604341</v>
+        <v>1.175775432530034</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.531816880767516</v>
@@ -31209,7 +31161,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.195894478617089</v>
+        <v>1.170379995700374</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.539969565594035</v>
@@ -31298,7 +31250,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.196080843634436</v>
+        <v>1.169449774775598</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.54693568348282</v>
@@ -31387,7 +31339,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.190336640292738</v>
+        <v>1.164692343364603</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.554553075412948</v>
@@ -31476,7 +31428,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.182855817253474</v>
+        <v>1.159136044262787</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.55357269024338</v>
@@ -31565,7 +31517,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.181228416489307</v>
+        <v>1.157010032989477</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.558445046186781</v>
@@ -31654,7 +31606,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.180329785310263</v>
+        <v>1.156884664526255</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.548770357617632</v>
@@ -31743,7 +31695,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.179990661533223</v>
+        <v>1.156119672739403</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.540987674184159</v>
@@ -31832,7 +31784,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.177305079864837</v>
+        <v>1.151966666655961</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.570675679298782</v>
@@ -31921,7 +31873,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.171727004487075</v>
+        <v>1.147002702860645</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.563245434595912</v>
@@ -32010,7 +31962,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.173175267263483</v>
+        <v>1.149334706420496</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.555706037098038</v>
@@ -32099,7 +32051,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.175902553212514</v>
+        <v>1.15509611837714</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.568312633153076</v>
@@ -32188,7 +32140,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.175799370888251</v>
+        <v>1.156603031540718</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.571118561270385</v>
@@ -32277,7 +32229,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.182320232355425</v>
+        <v>1.164422196675885</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.581866967329149</v>
@@ -32366,7 +32318,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.225105654014077</v>
+        <v>1.223171774658132</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.735186333491674</v>
